--- a/Documentos/Arquitetura/Guia Definicao da Arquitetura V4.xlsx
+++ b/Documentos/Arquitetura/Guia Definicao da Arquitetura V4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bandteccom-my.sharepoint.com/personal/gerson_santos_bandtec_com_br/Documents/Material Aula - Gerson/2021-1/Engenharia de Software/Sprint 2 - Virtual - Arquitetura de SW/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isabella.silva\Desktop\Bandtec\3 semestre\miaudote\Documentos\Arquitetura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="66" documentId="11_709A5D38D6F5AEC7CA2DD0C2DBAF78771449FB24" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{2D72B566-50E3-425C-BF16-1001156255EE}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9744ED7B-848A-4291-8985-036D9C57BCAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="1020" windowWidth="33825" windowHeight="14730" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Guia de Engenharia v4" sheetId="3" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="67">
   <si>
     <t>MECANISMO DE IMPLEMENTAÇÃO</t>
   </si>
@@ -75,9 +75,6 @@
     <t>Rede e dependências de rede para o funcionamento da aplicação</t>
   </si>
   <si>
-    <t>?Wi-fi, 3G, Switches</t>
-  </si>
-  <si>
     <t>Sistemas operacionais necessários para todas as camadas do software</t>
   </si>
   <si>
@@ -126,9 +123,6 @@
     <t xml:space="preserve">Definição de como será realizado o Controle de Versão </t>
   </si>
   <si>
-    <t>Definido que deve ser o GITHUB da Faculdade, criar release Notes de Versão.</t>
-  </si>
-  <si>
     <t>Servidor de Aplicações, SDKs, Bibliotecas</t>
   </si>
   <si>
@@ -159,15 +153,9 @@
     <t>Definição do ambiente de produção para a utilização da solução</t>
   </si>
   <si>
-    <t>? Windows ? Linux ? Firefox</t>
-  </si>
-  <si>
     <t>Definição de como o software será documentado e o que será documentado na solução</t>
   </si>
   <si>
-    <t>?Wiki, Word</t>
-  </si>
-  <si>
     <t>Ferramenta para gestão do projeto, rastreabilidade, gestão de mudanças.</t>
   </si>
   <si>
@@ -177,90 +165,74 @@
     <t>Processo de Trabalho deve utilizar metodologia ágil</t>
   </si>
   <si>
-    <t>? Visual Studio, BlueJ, Powerpoint, Visio</t>
-  </si>
-  <si>
     <t>Definição das ferramentas para o desenvolvimento</t>
   </si>
   <si>
-    <t>? Visual Studio, NetBeans</t>
-  </si>
-  <si>
-    <t>? Windows ? Linux</t>
-  </si>
-  <si>
-    <t>? Azure ? Servidores ? Notebook</t>
-  </si>
-  <si>
-    <t>? IIS ? Tomcat ?</t>
-  </si>
-  <si>
     <t>Agente de Coleta</t>
   </si>
   <si>
-    <t>Exemplo: Web Service RESTAPI</t>
-  </si>
-  <si>
-    <t>Exemplo: SQL Server</t>
-  </si>
-  <si>
-    <t>Exemplo: TXT com info de erros, segurança, etc.</t>
-  </si>
-  <si>
-    <t>Exemplo: React? HTML, CSS, JS?</t>
-  </si>
-  <si>
-    <t>Exemplo: Java Spring / SpringBoot</t>
-  </si>
-  <si>
-    <t>Exemplo:  JPA</t>
-  </si>
-  <si>
-    <t>Exemplo: SDK para IoT</t>
-  </si>
-  <si>
-    <t>Exemplo: Azure DevOps</t>
-  </si>
-  <si>
     <t>Configuração da IDE de deploy automatizado</t>
   </si>
   <si>
-    <t>Exemplo: Token ou SSO Com Google</t>
-  </si>
-  <si>
-    <t>? SCRUM</t>
-  </si>
-  <si>
-    <t>?Trello, Jira</t>
-  </si>
-  <si>
     <t>Integração contínua</t>
   </si>
   <si>
-    <t>Se houver</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">? TesteCase </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>+ Ferramenta ? Jmeter</t>
-    </r>
+    <t>SQL Server</t>
+  </si>
+  <si>
+    <t>Web Service RESTAPI</t>
+  </si>
+  <si>
+    <t>JPA</t>
+  </si>
+  <si>
+    <t>Não se aplica</t>
+  </si>
+  <si>
+    <t>React, HTML, CSS, JS</t>
+  </si>
+  <si>
+    <t>GitHub Pages</t>
+  </si>
+  <si>
+    <t>Multiplataforma</t>
+  </si>
+  <si>
+    <t>Wi-Fi, ETHERNET, 3G, 4G</t>
+  </si>
+  <si>
+    <t>Azure</t>
+  </si>
+  <si>
+    <t>Browser</t>
+  </si>
+  <si>
+    <t>Trello</t>
+  </si>
+  <si>
+    <t>Canva, Word, Trello</t>
+  </si>
+  <si>
+    <t>LucidChart, Astah, PowerPoint</t>
+  </si>
+  <si>
+    <t>Visual Studio Code, IntelliJ</t>
+  </si>
+  <si>
+    <t>GitHub Pessoal</t>
+  </si>
+  <si>
+    <t>Scrum, Kanban</t>
+  </si>
+  <si>
+    <t>Spring Boot</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -271,13 +243,6 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -306,20 +271,13 @@
     </font>
     <font>
       <sz val="12"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF434343"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -328,27 +286,52 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.499984740745262"/>
+        <fgColor rgb="FFFEA273"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF445E93"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDADFEA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF8DED4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8675A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE0DCE8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF434343"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="12">
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -362,9 +345,40 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color rgb="FF434343"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF434343"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
-      <right style="thin">
-        <color indexed="64"/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF434343"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF434343"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF434343"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF434343"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
@@ -373,51 +387,68 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
+      <left/>
+      <right style="medium">
+        <color rgb="FF434343"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color indexed="64"/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF434343"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF434343"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF434343"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF434343"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF434343"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF434343"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF434343"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF434343"/>
       </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
+      <left style="medium">
+        <color rgb="FF434343"/>
       </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
+      <right style="medium">
+        <color rgb="FF434343"/>
       </right>
       <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
+      <bottom style="medium">
+        <color rgb="FF434343"/>
       </bottom>
       <diagonal/>
     </border>
@@ -425,60 +456,133 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -486,6 +590,20 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF434343"/>
+      <color rgb="FF2B3A67"/>
+      <color rgb="FFE0DCE8"/>
+      <color rgb="FF8675A5"/>
+      <color rgb="FFF8DED4"/>
+      <color rgb="FFEFB9A3"/>
+      <color rgb="FFDADFEA"/>
+      <color rgb="FFBBC4D7"/>
+      <color rgb="FF7386AE"/>
+      <color rgb="FF445E93"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -763,301 +881,305 @@
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="56" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19" style="1" customWidth="1"/>
-    <col min="2" max="2" width="48.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="45.28515625" style="3" customWidth="1"/>
-    <col min="4" max="16384" width="56" style="1"/>
+    <col min="1" max="1" width="16.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="48.85546875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="45.28515625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="56" style="3"/>
+    <col min="5" max="16384" width="56" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="15"/>
-      <c r="B1" s="16" t="s">
+    <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="40"/>
+      <c r="B1" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="42" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="11"/>
+      <c r="B3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="11"/>
+      <c r="B4" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="11"/>
+      <c r="B5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="11"/>
+      <c r="B6" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="11"/>
+      <c r="B7" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="11"/>
+      <c r="B8" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="28" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="11"/>
+      <c r="B9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="11"/>
+      <c r="B10" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="12"/>
+      <c r="B11" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="15"/>
+      <c r="B14" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="15"/>
+      <c r="B15" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="19" t="s">
+      <c r="C15" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="15"/>
+      <c r="B16" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="13" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="22"/>
-      <c r="B3" s="2" t="s">
+    <row r="17" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="16"/>
+      <c r="B17" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="24" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="22"/>
-      <c r="B4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="18" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="22"/>
-      <c r="B5" s="2" t="s">
+      <c r="B19" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="34" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A20" s="30"/>
+      <c r="B20" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="30"/>
+      <c r="B21" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" s="37" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="30"/>
+      <c r="B22" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="30"/>
+      <c r="B23" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" s="37" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="30"/>
+      <c r="B24" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="22"/>
-      <c r="B6" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="22"/>
-      <c r="B7" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="22"/>
-      <c r="B8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="22"/>
-      <c r="B9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="22"/>
-      <c r="B10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D10" s="5" t="s">
+      <c r="C24" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" s="8" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="23"/>
-      <c r="B11" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="20" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="22"/>
-      <c r="B14" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="5" t="s">
+    <row r="25" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="31"/>
+      <c r="B25" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" s="39" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="22"/>
-      <c r="B15" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="22"/>
-      <c r="B16" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="23"/>
-      <c r="B17" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="D19" s="14" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A20" s="22"/>
-      <c r="B20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="22"/>
-      <c r="B21" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="22"/>
-      <c r="B22" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="22"/>
-      <c r="B23" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="22"/>
-      <c r="B24" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D24" s="18" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="23"/>
-      <c r="B25" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>71</v>
-      </c>
-    </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="17"/>
+      <c r="A28" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/Documentos/Arquitetura/Guia Definicao da Arquitetura V4.xlsx
+++ b/Documentos/Arquitetura/Guia Definicao da Arquitetura V4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isabella.silva\Desktop\Bandtec\3 semestre\miaudote\Documentos\Arquitetura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9744ED7B-848A-4291-8985-036D9C57BCAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E9FC819-8FE3-47AB-A335-1D2804C5927B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="70">
   <si>
     <t>MECANISMO DE IMPLEMENTAÇÃO</t>
   </si>
@@ -201,12 +201,6 @@
     <t>Wi-Fi, ETHERNET, 3G, 4G</t>
   </si>
   <si>
-    <t>Azure</t>
-  </si>
-  <si>
-    <t>Browser</t>
-  </si>
-  <si>
     <t>Trello</t>
   </si>
   <si>
@@ -226,6 +220,21 @@
   </si>
   <si>
     <t>Spring Boot</t>
+  </si>
+  <si>
+    <t>Testes unitários das principais regras de negócio</t>
+  </si>
+  <si>
+    <t>Browser (Chrome, Firefox e Safari)</t>
+  </si>
+  <si>
+    <t>Azure (Aplicativos Web e Banco de Dados)</t>
+  </si>
+  <si>
+    <t>Autenticação de usuário</t>
+  </si>
+  <si>
+    <t>Logs de response (erros de servidor e da API)</t>
   </si>
 </sst>
 </file>
@@ -485,6 +494,78 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -494,9 +575,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -506,42 +584,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -550,39 +592,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -882,7 +891,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="56" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -895,33 +904,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="40"/>
-      <c r="B1" s="41" t="s">
+      <c r="A1" s="31"/>
+      <c r="B1" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="41" t="s">
+      <c r="C1" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="42" t="s">
+      <c r="D1" s="33" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="20" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11"/>
+      <c r="A3" s="35"/>
       <c r="B3" s="5" t="s">
         <v>19</v>
       </c>
@@ -933,19 +942,19 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="11"/>
-      <c r="B4" s="27" t="s">
+      <c r="A4" s="35"/>
+      <c r="B4" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="28" t="s">
-        <v>53</v>
+      <c r="D4" s="22" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
+      <c r="A5" s="35"/>
       <c r="B5" s="5" t="s">
         <v>17</v>
       </c>
@@ -957,19 +966,19 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="11"/>
-      <c r="B6" s="27" t="s">
+      <c r="A6" s="35"/>
+      <c r="B6" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="28" t="s">
+      <c r="D6" s="22" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="11"/>
+      <c r="A7" s="35"/>
       <c r="B7" s="5" t="s">
         <v>38</v>
       </c>
@@ -977,23 +986,23 @@
         <v>39</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="11"/>
-      <c r="B8" s="27" t="s">
+      <c r="A8" s="35"/>
+      <c r="B8" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="28" t="s">
+      <c r="D8" s="22" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="11"/>
+      <c r="A9" s="35"/>
       <c r="B9" s="5" t="s">
         <v>6</v>
       </c>
@@ -1005,46 +1014,46 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="11"/>
-      <c r="B10" s="27" t="s">
+      <c r="A10" s="35"/>
+      <c r="B10" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="28" t="s">
+      <c r="D10" s="22" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="12"/>
+      <c r="A11" s="36"/>
       <c r="B11" s="9" t="s">
         <v>30</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="17" t="s">
-        <v>53</v>
+      <c r="D11" s="11" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="19" t="s">
+      <c r="D13" s="13" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
+      <c r="A14" s="38"/>
       <c r="B14" s="5" t="s">
         <v>14</v>
       </c>
@@ -1056,106 +1065,106 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="15"/>
-      <c r="B15" s="20" t="s">
+      <c r="A15" s="38"/>
+      <c r="B15" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="20" t="s">
+      <c r="C15" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="21" t="s">
+      <c r="D15" s="15" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="15"/>
+      <c r="A16" s="38"/>
       <c r="B16" s="6" t="s">
         <v>23</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D16" s="13" t="s">
-        <v>58</v>
+      <c r="D16" s="10" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="16"/>
-      <c r="B17" s="22" t="s">
+      <c r="A17" s="39"/>
+      <c r="B17" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="23" t="s">
+      <c r="C17" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="D17" s="24" t="s">
-        <v>59</v>
+      <c r="D17" s="18" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="19" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="29" t="s">
+      <c r="A19" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="32" t="s">
+      <c r="B19" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="33" t="s">
+      <c r="C19" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="D19" s="34" t="s">
-        <v>65</v>
+      <c r="D19" s="25" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A20" s="30"/>
+      <c r="A20" s="41"/>
       <c r="B20" s="6" t="s">
         <v>24</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D20" s="13" t="s">
-        <v>61</v>
+      <c r="D20" s="10" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="30"/>
-      <c r="B21" s="35" t="s">
+      <c r="A21" s="41"/>
+      <c r="B21" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="36" t="s">
+      <c r="C21" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="D21" s="37" t="s">
-        <v>60</v>
+      <c r="D21" s="28" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="30"/>
+      <c r="A22" s="41"/>
       <c r="B22" s="6" t="s">
         <v>26</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D22" s="13" t="s">
-        <v>62</v>
+      <c r="D22" s="10" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="30"/>
-      <c r="B23" s="35" t="s">
+      <c r="A23" s="41"/>
+      <c r="B23" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="36" t="s">
+      <c r="C23" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="D23" s="37" t="s">
-        <v>63</v>
+      <c r="D23" s="28" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="30"/>
+      <c r="A24" s="41"/>
       <c r="B24" s="5" t="s">
         <v>18</v>
       </c>
@@ -1163,19 +1172,19 @@
         <v>31</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="31"/>
-      <c r="B25" s="38" t="s">
+      <c r="A25" s="42"/>
+      <c r="B25" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="C25" s="38" t="s">
+      <c r="C25" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="D25" s="39" t="s">
-        <v>53</v>
+      <c r="D25" s="30" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
